--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\3DGame_Progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\3DGame_Progress\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -213,6 +213,16 @@
     <t>Git教えました</t>
     <rPh sb="3" eb="4">
       <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル作り開始</t>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2165,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2175,7 +2185,9 @@
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -2287,6 +2299,9 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
@@ -2650,7 +2665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -223,6 +223,19 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム用のプロジェクト土台作成</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1026,7 +1039,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2175,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2665,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2787,6 +2800,9 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\3DGame_Progress\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\git\3DGame_Progress\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
-    <sheet name="青木" sheetId="8" r:id="rId2"/>
-    <sheet name="大浦" sheetId="9" r:id="rId3"/>
-    <sheet name="齋藤" sheetId="10" r:id="rId4"/>
-    <sheet name="佐藤" sheetId="11" r:id="rId5"/>
-    <sheet name="羽鳥" sheetId="12" r:id="rId6"/>
-    <sheet name="山田" sheetId="13" r:id="rId7"/>
+    <sheet name="青木(モデル)" sheetId="8" r:id="rId2"/>
+    <sheet name="大浦(モーション)" sheetId="9" r:id="rId3"/>
+    <sheet name="齋藤(モーション)" sheetId="10" r:id="rId4"/>
+    <sheet name="佐藤(プログラマー)" sheetId="11" r:id="rId5"/>
+    <sheet name="羽鳥(プログラマー)" sheetId="12" r:id="rId6"/>
+    <sheet name="山田(モデル)" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -139,16 +139,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>α版提出</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>企画書提出</t>
     <rPh sb="0" eb="3">
       <t>キカクショ</t>
@@ -200,16 +190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モデル制作開始</t>
-    <rPh sb="3" eb="5">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Git教えました</t>
     <rPh sb="3" eb="4">
       <t>オシ</t>
@@ -227,15 +207,148 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チーム用のプロジェクト土台作成</t>
+    <t>青木</t>
+    <rPh sb="0" eb="2">
+      <t>アオキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大浦</t>
+    <rPh sb="0" eb="2">
+      <t>オオウラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>羽鳥</t>
+    <rPh sb="0" eb="2">
+      <t>ハトリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の2足作成</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵4足作成</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成予定</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害物作成</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハンドガン完成</t>
+    <rPh sb="5" eb="7">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハンドガン制作開始</t>
+    <rPh sb="5" eb="7">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショットガン作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アサルト作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2足作成</t>
+    <rPh sb="1" eb="2">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4足作成</t>
+    <rPh sb="1" eb="2">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最悪ここ</t>
+    <rPh sb="0" eb="2">
+      <t>サイアク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -348,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,12 +506,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,6 +519,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,10 +737,7 @@
     <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,15 +767,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,6 +836,15 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,15 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,6 +862,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,58 +1167,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="19" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -1098,13 +1229,13 @@
       <c r="D2" s="3">
         <v>44175</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>44176</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>44177</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>44178</v>
       </c>
       <c r="H2" s="3">
@@ -1119,13 +1250,13 @@
       <c r="K2" s="3">
         <v>44182</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>44183</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>44184</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>44185</v>
       </c>
       <c r="O2" s="3">
@@ -1140,7 +1271,7 @@
       <c r="R2" s="3">
         <v>44189</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>44190</v>
       </c>
       <c r="T2" s="5">
@@ -1162,20 +1293,20 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="46" t="s">
-        <v>12</v>
+      <c r="H3" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1183,261 +1314,261 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="43" t="s">
-        <v>10</v>
+      <c r="O3" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="34" t="s">
+      <c r="R3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="36"/>
-    </row>
-    <row r="4" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="32"/>
+    </row>
+    <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="30"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="47"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="44"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="39"/>
-    </row>
-    <row r="5" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="R4" s="28"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="35"/>
+    </row>
+    <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="30"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="47"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="44"/>
+      <c r="O5" s="40"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="39"/>
-    </row>
-    <row r="6" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="R5" s="28"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35"/>
+    </row>
+    <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="30"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="44"/>
+      <c r="O6" s="40"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="39"/>
-    </row>
-    <row r="7" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="R6" s="28"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="35"/>
+    </row>
+    <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A7" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="30"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="44"/>
+      <c r="O7" s="40"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="39"/>
-    </row>
-    <row r="8" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="R7" s="28"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="35"/>
+    </row>
+    <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A8" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="30"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="48"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="45"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="42"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A11" s="16" t="s">
+      <c r="R8" s="29"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-    </row>
-    <row r="12" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>43831</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>43832</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>43833</v>
       </c>
       <c r="E12" s="3">
@@ -1455,10 +1586,10 @@
       <c r="I12" s="3">
         <v>43838</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>43839</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>43840</v>
       </c>
       <c r="L12" s="3">
@@ -1476,10 +1607,10 @@
       <c r="P12" s="3">
         <v>43845</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="14">
         <v>43846</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="12">
         <v>43847</v>
       </c>
       <c r="S12" s="3">
@@ -1497,196 +1628,223 @@
       <c r="W12" s="3">
         <v>43852</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="13">
         <v>43853</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="12">
         <v>43854</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="P13" s="7"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-    </row>
-    <row r="14" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="18"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-    </row>
-    <row r="15" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+      <c r="R14" s="7"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="18"/>
+      <c r="P15" s="55"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-    </row>
-    <row r="16" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+      <c r="R15" s="7"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="18"/>
+      <c r="P16" s="55"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="R16" s="7"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="18"/>
+      <c r="P17" s="55"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-    </row>
-    <row r="18" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+      <c r="R17" s="7"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="19"/>
+      <c r="P18" s="55"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R18" s="7"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Q20" s="1"/>
     </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A11:Y11"/>
-    <mergeCell ref="P13:P18"/>
     <mergeCell ref="B13:K18"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="C3:C8"/>
@@ -1703,91 +1861,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="3">
+      <c r="B2" s="51">
         <v>44173</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="51">
         <v>44174</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="51">
         <v>44175</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="52">
         <v>44176</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="53">
         <v>44177</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="54">
         <v>44178</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="51">
         <v>44179</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="51">
         <v>44180</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="51">
         <v>44181</v>
       </c>
       <c r="K2" s="3">
         <v>44182</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>44183</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>44184</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>44185</v>
       </c>
       <c r="O2" s="3">
@@ -1802,7 +1966,7 @@
       <c r="R2" s="3">
         <v>44189</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>44190</v>
       </c>
       <c r="T2" s="5">
@@ -1824,49 +1988,69 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-    </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>43832</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>43833</v>
       </c>
       <c r="E10" s="3">
@@ -1884,10 +2068,10 @@
       <c r="I10" s="3">
         <v>43838</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>43839</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>43840</v>
       </c>
       <c r="L10" s="3">
@@ -1905,10 +2089,10 @@
       <c r="P10" s="3">
         <v>43845</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>43846</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>43847</v>
       </c>
       <c r="S10" s="3">
@@ -1926,11 +2110,19 @@
       <c r="W10" s="3">
         <v>43852</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <v>43853</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="12">
         <v>43854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1948,49 +2140,49 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2001,13 +2193,13 @@
       <c r="D2" s="3">
         <v>44175</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>44176</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>44177</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>44178</v>
       </c>
       <c r="H2" s="3">
@@ -2022,13 +2214,13 @@
       <c r="K2" s="3">
         <v>44182</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>44183</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>44184</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>44185</v>
       </c>
       <c r="O2" s="3">
@@ -2043,7 +2235,7 @@
       <c r="R2" s="3">
         <v>44189</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>44190</v>
       </c>
       <c r="T2" s="5">
@@ -2065,49 +2257,49 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-    </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>43832</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>43833</v>
       </c>
       <c r="E10" s="3">
@@ -2125,10 +2317,10 @@
       <c r="I10" s="3">
         <v>43838</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>43839</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>43840</v>
       </c>
       <c r="L10" s="3">
@@ -2146,10 +2338,10 @@
       <c r="P10" s="3">
         <v>43845</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>43846</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>43847</v>
       </c>
       <c r="S10" s="3">
@@ -2167,10 +2359,10 @@
       <c r="W10" s="3">
         <v>43852</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <v>43853</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="12">
         <v>43854</v>
       </c>
     </row>
@@ -2189,52 +2381,52 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2245,13 +2437,13 @@
       <c r="D2" s="3">
         <v>44175</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>44176</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>44177</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>44178</v>
       </c>
       <c r="H2" s="3">
@@ -2266,13 +2458,13 @@
       <c r="K2" s="3">
         <v>44182</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>44183</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>44184</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>44185</v>
       </c>
       <c r="O2" s="3">
@@ -2287,7 +2479,7 @@
       <c r="R2" s="3">
         <v>44189</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>44190</v>
       </c>
       <c r="T2" s="5">
@@ -2309,52 +2501,52 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-    </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>43832</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>43833</v>
       </c>
       <c r="E10" s="3">
@@ -2372,10 +2564,10 @@
       <c r="I10" s="3">
         <v>43838</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>43839</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>43840</v>
       </c>
       <c r="L10" s="3">
@@ -2393,10 +2585,10 @@
       <c r="P10" s="3">
         <v>43845</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>43846</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>43847</v>
       </c>
       <c r="S10" s="3">
@@ -2414,10 +2606,10 @@
       <c r="W10" s="3">
         <v>43852</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <v>43853</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="12">
         <v>43854</v>
       </c>
     </row>
@@ -2439,48 +2631,48 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="47"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2491,13 +2683,13 @@
       <c r="D2" s="3">
         <v>44175</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>44176</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>44177</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>44178</v>
       </c>
       <c r="H2" s="3">
@@ -2512,13 +2704,13 @@
       <c r="K2" s="3">
         <v>44182</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>44183</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>44184</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>44185</v>
       </c>
       <c r="O2" s="3">
@@ -2533,7 +2725,7 @@
       <c r="R2" s="3">
         <v>44189</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>44190</v>
       </c>
       <c r="T2" s="5">
@@ -2555,49 +2747,49 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-    </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>43832</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>43833</v>
       </c>
       <c r="E10" s="3">
@@ -2615,10 +2807,10 @@
       <c r="I10" s="3">
         <v>43838</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>43839</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>43840</v>
       </c>
       <c r="L10" s="3">
@@ -2636,10 +2828,10 @@
       <c r="P10" s="3">
         <v>43845</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>43846</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>43847</v>
       </c>
       <c r="S10" s="3">
@@ -2657,10 +2849,10 @@
       <c r="W10" s="3">
         <v>43852</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <v>43853</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="12">
         <v>43854</v>
       </c>
     </row>
@@ -2678,51 +2870,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>44173</v>
@@ -2733,13 +2925,13 @@
       <c r="D2" s="3">
         <v>44175</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>44176</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>44177</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>44178</v>
       </c>
       <c r="H2" s="3">
@@ -2754,13 +2946,13 @@
       <c r="K2" s="3">
         <v>44182</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>44183</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>44184</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>44185</v>
       </c>
       <c r="O2" s="3">
@@ -2775,7 +2967,7 @@
       <c r="R2" s="3">
         <v>44189</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>44190</v>
       </c>
       <c r="T2" s="5">
@@ -2797,52 +2989,49 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-    </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>43832</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>43833</v>
       </c>
       <c r="E10" s="3">
@@ -2860,10 +3049,10 @@
       <c r="I10" s="3">
         <v>43838</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>43839</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>43840</v>
       </c>
       <c r="L10" s="3">
@@ -2881,10 +3070,10 @@
       <c r="P10" s="3">
         <v>43845</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>43846</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>43847</v>
       </c>
       <c r="S10" s="3">
@@ -2902,10 +3091,10 @@
       <c r="W10" s="3">
         <v>43852</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <v>43853</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="12">
         <v>43854</v>
       </c>
     </row>
@@ -2921,90 +3110,88 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+    </row>
+    <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="3">
+      <c r="B2" s="51">
         <v>44173</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="51">
         <v>44174</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="51">
         <v>44175</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="52">
         <v>44176</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="53">
         <v>44177</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="54">
         <v>44178</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="51">
         <v>44179</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="51">
         <v>44180</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="51">
         <v>44181</v>
       </c>
       <c r="K2" s="3">
         <v>44182</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>44183</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>44184</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>44185</v>
       </c>
       <c r="O2" s="3">
@@ -3019,7 +3206,7 @@
       <c r="R2" s="3">
         <v>44189</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="10">
         <v>44190</v>
       </c>
       <c r="T2" s="5">
@@ -3041,49 +3228,63 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.4">
-      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-    </row>
-    <row r="10" spans="1:25" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="3">
         <v>43831</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>43832</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>43833</v>
       </c>
       <c r="E10" s="3">
@@ -3101,10 +3302,10 @@
       <c r="I10" s="3">
         <v>43838</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>43839</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>43840</v>
       </c>
       <c r="L10" s="3">
@@ -3122,10 +3323,10 @@
       <c r="P10" s="3">
         <v>43845</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>43846</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>43847</v>
       </c>
       <c r="S10" s="3">
@@ -3143,11 +3344,19 @@
       <c r="W10" s="3">
         <v>43852</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="13">
         <v>43853</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="12">
         <v>43854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -867,75 +867,6 @@
     <xf numFmtId="56" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -963,36 +894,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1011,36 +915,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1074,12 +948,78 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,6 +1027,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1395,36 +1395,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="82"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="2">
         <v>44173</v>
       </c>
@@ -1479,10 +1479,10 @@
       <c r="S2" s="6">
         <v>44190</v>
       </c>
-      <c r="T2" s="44">
+      <c r="T2" s="21">
         <v>44191</v>
       </c>
-      <c r="U2" s="45">
+      <c r="U2" s="22">
         <v>44192</v>
       </c>
       <c r="V2" s="2">
@@ -1503,14 +1503,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="72" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="89" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1519,207 +1519,207 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="86" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="67" t="s">
+      <c r="S3" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="69"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="28"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="36"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="33"/>
+      <c r="O4" s="87"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="72"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="82"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="28"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="36"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="33"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="72"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="82"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="36"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="33"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="72"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="82"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="28"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="36"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="33"/>
+      <c r="O7" s="87"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="72"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="82"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="37"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="75"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="85"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A10" s="82"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2">
         <v>43831</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="21">
         <v>43832</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="22">
         <v>43833</v>
       </c>
       <c r="E10" s="2">
@@ -1737,10 +1737,10 @@
       <c r="I10" s="2">
         <v>43838</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="21">
         <v>43839</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="22">
         <v>43840</v>
       </c>
       <c r="L10" s="2">
@@ -1758,10 +1758,10 @@
       <c r="P10" s="2">
         <v>43845</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="21">
         <v>43846</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="22">
         <v>43847</v>
       </c>
       <c r="S10" s="2">
@@ -1779,10 +1779,10 @@
       <c r="W10" s="2">
         <v>43852</v>
       </c>
-      <c r="X10" s="44">
+      <c r="X10" s="21">
         <v>43853</v>
       </c>
-      <c r="Y10" s="45">
+      <c r="Y10" s="22">
         <v>43854</v>
       </c>
     </row>
@@ -1790,209 +1790,209 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
     </row>
     <row r="12" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
     </row>
     <row r="13" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
     </row>
     <row r="14" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
     </row>
     <row r="15" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
     </row>
     <row r="16" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A18" s="82"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="2">
         <v>43855</v>
       </c>
@@ -2008,10 +2008,10 @@
       <c r="F18" s="2">
         <v>43859</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="21">
         <v>43860</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="22">
         <v>43861</v>
       </c>
       <c r="I18" s="2">
@@ -2029,10 +2029,10 @@
       <c r="M18" s="2">
         <v>43866</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="21">
         <v>43867</v>
       </c>
-      <c r="O18" s="45">
+      <c r="O18" s="22">
         <v>43868</v>
       </c>
       <c r="P18" s="2">
@@ -2050,10 +2050,10 @@
       <c r="T18" s="2">
         <v>43873</v>
       </c>
-      <c r="U18" s="44">
+      <c r="U18" s="21">
         <v>43874</v>
       </c>
-      <c r="V18" s="45">
+      <c r="V18" s="22">
         <v>43875</v>
       </c>
       <c r="W18" s="2">
@@ -2071,220 +2071,220 @@
         <v>2</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="48"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="42" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="48"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="48"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="55" t="s">
+      <c r="Q19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="48"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
     </row>
     <row r="20" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="85"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="49"/>
+      <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
     </row>
     <row r="21" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="85"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="49"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="49"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
     </row>
     <row r="22" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="85"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="49"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="49"/>
+      <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
     </row>
     <row r="23" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="85"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="49"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="49"/>
+      <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
     </row>
     <row r="24" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="49"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="86"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="49"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="49"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A26" s="82"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="2">
         <v>43879</v>
       </c>
       <c r="C26" s="2">
         <v>43880</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="21">
         <v>43881</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="22">
         <v>43882</v>
       </c>
       <c r="F26" s="2">
@@ -2302,10 +2302,10 @@
       <c r="J26" s="2">
         <v>43887</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="21">
         <v>43888</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="22">
         <v>43889</v>
       </c>
       <c r="M26" s="2">
@@ -2326,10 +2326,10 @@
       <c r="R26" s="2">
         <v>43895</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="21">
         <v>43896</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="22">
         <v>43897</v>
       </c>
       <c r="U26" s="2">
@@ -2353,14 +2353,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="69" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="45" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="1"/>
@@ -2369,200 +2369,200 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="48"/>
+      <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="52" t="s">
+      <c r="R27" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="55" t="s">
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
     </row>
     <row r="28" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="90"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="56"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="49"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
     </row>
     <row r="29" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="90"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="56"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="49"/>
+      <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
     </row>
     <row r="30" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="90"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="56"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="49"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
     </row>
     <row r="31" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="90"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="56"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="49"/>
+      <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
     </row>
     <row r="32" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="91"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="57"/>
+      <c r="H32" s="47"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="49"/>
+      <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="83"/>
-      <c r="B34" s="46">
+      <c r="A34" s="41"/>
+      <c r="B34" s="23">
         <v>43903</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="24">
         <v>43904</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="20">
         <v>43905</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="20">
         <v>43906</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="20">
         <v>43907</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="20">
         <v>43908</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="20">
         <v>43909</v>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
         <v>2</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="48"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="59" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2585,63 +2585,71 @@
         <v>3</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="48"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="87"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="48"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="87"/>
+      <c r="H37" s="60"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="48"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="87"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="48"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="87"/>
+      <c r="H39" s="60"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="48"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="1"/>
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="88"/>
+      <c r="H40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2652,14 +2660,6 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2696,33 +2696,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -2800,24 +2800,24 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="63" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="65" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="33" t="s">
         <v>34</v>
       </c>
       <c r="P3" t="s">
@@ -2825,15 +2825,15 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="64" t="s">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="32" t="s">
         <v>34</v>
       </c>
       <c r="P4" t="s">
@@ -2841,33 +2841,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -2984,33 +2984,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3093,33 +3093,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3231,33 +3231,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3343,33 +3343,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3480,33 +3480,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="64"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3589,33 +3589,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3725,33 +3725,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3834,33 +3834,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3960,48 +3960,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="81"/>
-    <col min="2" max="3" width="8" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="81"/>
-    <col min="6" max="7" width="9.796875" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="81"/>
-    <col min="11" max="11" width="11.5" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="81"/>
-    <col min="13" max="14" width="9.796875" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="81"/>
+    <col min="1" max="1" width="9" style="39"/>
+    <col min="2" max="3" width="8" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="39"/>
+    <col min="6" max="7" width="9.796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9" style="39"/>
+    <col min="11" max="11" width="11.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="39"/>
+    <col min="13" max="14" width="9.796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A2" s="42"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="14">
         <v>44173</v>
       </c>
@@ -4076,58 +4076,58 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="42"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2">
         <v>43831</v>
       </c>
@@ -4202,10 +4202,10 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="L11" s="81" t="s">
+      <c r="L11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="W11" s="81" t="s">
+      <c r="W11" s="39" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\git\3DGame_Progress\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -385,12 +385,37 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>プログラム開始</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成予定</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーションプログラム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーションプログラム</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,8 +561,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +667,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +999,117 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,9 +1179,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,66 +1195,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1371,57 +1479,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
@@ -1503,14 +1613,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="76" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1519,197 +1629,197 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="73" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="74" t="s">
+      <c r="R3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="79"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="66"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="73"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="90"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="87"/>
+      <c r="O4" s="74"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="82"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="69"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="73"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="90"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="87"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="82"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="69"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="73"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="90"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="87"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="82"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="73"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="90"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="87"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="82"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="69"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="73"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="91"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="88"/>
+      <c r="O8" s="75"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="85"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="72"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -1790,21 +1900,21 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -1821,19 +1931,19 @@
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="92"/>
       <c r="O12" s="37"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -1850,19 +1960,19 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="92"/>
       <c r="O13" s="37"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -1879,19 +1989,19 @@
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="92"/>
       <c r="O14" s="37"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -1908,19 +2018,19 @@
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="92"/>
       <c r="O15" s="37"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -1937,19 +2047,19 @@
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="95"/>
       <c r="O16" s="37"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -1963,33 +2073,33 @@
       <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="40"/>
@@ -2074,7 +2184,7 @@
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="79" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="1"/>
@@ -2087,7 +2197,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="45" t="s">
+      <c r="Q19" s="82" t="s">
         <v>33</v>
       </c>
       <c r="R19" s="25"/>
@@ -2107,7 +2217,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="43"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="1"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
@@ -2118,7 +2228,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="48"/>
+      <c r="Q20" s="85"/>
       <c r="R20" s="25"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2136,7 +2246,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="80"/>
       <c r="G21" s="1"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
@@ -2147,7 +2257,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="48"/>
+      <c r="Q21" s="85"/>
       <c r="R21" s="25"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2165,7 +2275,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="43"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="1"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
@@ -2176,7 +2286,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="48"/>
+      <c r="Q22" s="85"/>
       <c r="R22" s="25"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2194,7 +2304,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="43"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="1"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
@@ -2205,7 +2315,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="48"/>
+      <c r="Q23" s="85"/>
       <c r="R23" s="25"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -2223,7 +2333,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="44"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="1"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
@@ -2234,7 +2344,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="49"/>
+      <c r="Q24" s="86"/>
       <c r="R24" s="25"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
@@ -2245,33 +2355,33 @@
       <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
@@ -2353,14 +2463,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="105" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="82" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="1"/>
@@ -2372,14 +2482,14 @@
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="66" t="s">
+      <c r="R27" s="102" t="s">
         <v>29</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="45" t="s">
+      <c r="W27" s="82" t="s">
         <v>31</v>
       </c>
       <c r="X27" s="27"/>
@@ -2390,12 +2500,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="70"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="46"/>
+      <c r="H28" s="83"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2405,12 +2515,12 @@
       <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="67"/>
+      <c r="R28" s="103"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="46"/>
+      <c r="W28" s="83"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
     </row>
@@ -2419,12 +2529,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="46"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2434,12 +2544,12 @@
       <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="67"/>
+      <c r="R29" s="103"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="46"/>
+      <c r="W29" s="83"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
     </row>
@@ -2448,12 +2558,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="70"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="46"/>
+      <c r="H30" s="83"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2463,12 +2573,12 @@
       <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="67"/>
+      <c r="R30" s="103"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="46"/>
+      <c r="W30" s="83"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
     </row>
@@ -2477,12 +2587,12 @@
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="70"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="46"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2492,12 +2602,12 @@
       <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="67"/>
+      <c r="R31" s="103"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="46"/>
+      <c r="W31" s="83"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
     </row>
@@ -2506,12 +2616,12 @@
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="71"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="47"/>
+      <c r="H32" s="84"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2521,26 +2631,26 @@
       <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="68"/>
+      <c r="R32" s="104"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="47"/>
+      <c r="W32" s="84"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="64"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
@@ -2576,7 +2686,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="96" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2590,7 +2700,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="60"/>
+      <c r="H36" s="97"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
@@ -2602,7 +2712,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="60"/>
+      <c r="H37" s="97"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
@@ -2614,7 +2724,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="60"/>
+      <c r="H38" s="97"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
@@ -2626,7 +2736,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="60"/>
+      <c r="H39" s="97"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -2638,18 +2748,10 @@
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="61"/>
+      <c r="H40" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2660,6 +2762,14 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2672,10 +2782,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2689,40 +2799,41 @@
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="17" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -2820,9 +2931,18 @@
       <c r="O3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="49" t="s">
         <v>22</v>
       </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="I4" s="30" t="s">
@@ -2836,126 +2956,436 @@
       <c r="O4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="51" t="s">
         <v>24</v>
       </c>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+    </row>
+    <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+    </row>
+    <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43832</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43833</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43834</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43835</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43836</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43837</v>
+      </c>
+      <c r="I6" s="2">
+        <v>43838</v>
+      </c>
+      <c r="J6" s="10">
+        <v>43839</v>
+      </c>
+      <c r="K6" s="8">
+        <v>43840</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43841</v>
+      </c>
+      <c r="M6" s="2">
+        <v>43842</v>
+      </c>
+      <c r="N6" s="2">
+        <v>43843</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43844</v>
+      </c>
+      <c r="P6" s="2">
+        <v>43845</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>43846</v>
+      </c>
+      <c r="R6" s="8">
+        <v>43847</v>
+      </c>
+      <c r="S6" s="2">
+        <v>43848</v>
+      </c>
+      <c r="T6" s="2">
+        <v>43849</v>
+      </c>
+      <c r="U6" s="2">
+        <v>43850</v>
+      </c>
+      <c r="V6" s="2">
+        <v>43851</v>
+      </c>
+      <c r="W6" s="2">
+        <v>43852</v>
+      </c>
+      <c r="X6" s="9">
+        <v>43853</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-    </row>
-    <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C10" s="10">
-        <v>43832</v>
-      </c>
-      <c r="D10" s="8">
-        <v>43833</v>
+        <v>43855</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43856</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43857</v>
       </c>
       <c r="E10" s="2">
-        <v>43834</v>
+        <v>43858</v>
       </c>
       <c r="F10" s="2">
-        <v>43835</v>
-      </c>
-      <c r="G10" s="2">
-        <v>43836</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43837</v>
+        <v>43859</v>
+      </c>
+      <c r="G10" s="21">
+        <v>43860</v>
+      </c>
+      <c r="H10" s="22">
+        <v>43861</v>
       </c>
       <c r="I10" s="2">
-        <v>43838</v>
-      </c>
-      <c r="J10" s="10">
-        <v>43839</v>
-      </c>
-      <c r="K10" s="8">
-        <v>43840</v>
+        <v>43862</v>
+      </c>
+      <c r="J10" s="2">
+        <v>43863</v>
+      </c>
+      <c r="K10" s="2">
+        <v>43864</v>
       </c>
       <c r="L10" s="2">
-        <v>43841</v>
+        <v>43865</v>
       </c>
       <c r="M10" s="2">
-        <v>43842</v>
-      </c>
-      <c r="N10" s="2">
-        <v>43843</v>
-      </c>
-      <c r="O10" s="2">
-        <v>43844</v>
+        <v>43866</v>
+      </c>
+      <c r="N10" s="21">
+        <v>43867</v>
+      </c>
+      <c r="O10" s="22">
+        <v>43868</v>
       </c>
       <c r="P10" s="2">
-        <v>43845</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>43846</v>
-      </c>
-      <c r="R10" s="8">
-        <v>43847</v>
+        <v>43869</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>43870</v>
+      </c>
+      <c r="R10" s="2">
+        <v>43871</v>
       </c>
       <c r="S10" s="2">
-        <v>43848</v>
+        <v>43872</v>
       </c>
       <c r="T10" s="2">
-        <v>43849</v>
-      </c>
-      <c r="U10" s="2">
-        <v>43850</v>
-      </c>
-      <c r="V10" s="2">
-        <v>43851</v>
+        <v>43873</v>
+      </c>
+      <c r="U10" s="21">
+        <v>43874</v>
+      </c>
+      <c r="V10" s="22">
+        <v>43875</v>
       </c>
       <c r="W10" s="2">
-        <v>43852</v>
-      </c>
-      <c r="X10" s="9">
-        <v>43853</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>43854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11" t="s">
-        <v>26</v>
+        <v>43876</v>
+      </c>
+      <c r="X10" s="2">
+        <v>43877</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A14" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B15" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43880</v>
+      </c>
+      <c r="D15" s="21">
+        <v>43881</v>
+      </c>
+      <c r="E15" s="22">
+        <v>43882</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43883</v>
+      </c>
+      <c r="G15" s="2">
+        <v>43884</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43885</v>
+      </c>
+      <c r="I15" s="2">
+        <v>43886</v>
+      </c>
+      <c r="J15" s="2">
+        <v>43887</v>
+      </c>
+      <c r="K15" s="21">
+        <v>43888</v>
+      </c>
+      <c r="L15" s="22">
+        <v>43889</v>
+      </c>
+      <c r="M15" s="2">
+        <v>43890</v>
+      </c>
+      <c r="N15" s="2">
+        <v>43891</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43892</v>
+      </c>
+      <c r="P15" s="2">
+        <v>43893</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>43894</v>
+      </c>
+      <c r="R15" s="2">
+        <v>43895</v>
+      </c>
+      <c r="S15" s="21">
+        <v>43896</v>
+      </c>
+      <c r="T15" s="22">
+        <v>43897</v>
+      </c>
+      <c r="U15" s="2">
+        <v>43898</v>
+      </c>
+      <c r="V15" s="2">
+        <v>43899</v>
+      </c>
+      <c r="W15" s="2">
+        <v>43900</v>
+      </c>
+      <c r="X15" s="2">
+        <v>43901</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A18" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B19" s="23">
+        <v>43903</v>
+      </c>
+      <c r="C19" s="24">
+        <v>43904</v>
+      </c>
+      <c r="D19" s="20">
+        <v>43905</v>
+      </c>
+      <c r="E19" s="20">
+        <v>43906</v>
+      </c>
+      <c r="F19" s="20">
+        <v>43907</v>
+      </c>
+      <c r="G19" s="20">
+        <v>43908</v>
+      </c>
+      <c r="H19" s="20">
+        <v>43909</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A18:Y18"/>
     <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2967,10 +3397,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2984,33 +3414,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3088,38 +3518,38 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3196,10 +3626,271 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A13" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B14" s="2">
+        <v>43855</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43856</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43857</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43858</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43859</v>
+      </c>
+      <c r="G14" s="21">
+        <v>43860</v>
+      </c>
+      <c r="H14" s="22">
+        <v>43861</v>
+      </c>
+      <c r="I14" s="2">
+        <v>43862</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43863</v>
+      </c>
+      <c r="K14" s="2">
+        <v>43864</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43865</v>
+      </c>
+      <c r="M14" s="2">
+        <v>43866</v>
+      </c>
+      <c r="N14" s="21">
+        <v>43867</v>
+      </c>
+      <c r="O14" s="22">
+        <v>43868</v>
+      </c>
+      <c r="P14" s="2">
+        <v>43869</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>43870</v>
+      </c>
+      <c r="R14" s="2">
+        <v>43871</v>
+      </c>
+      <c r="S14" s="2">
+        <v>43872</v>
+      </c>
+      <c r="T14" s="2">
+        <v>43873</v>
+      </c>
+      <c r="U14" s="21">
+        <v>43874</v>
+      </c>
+      <c r="V14" s="22">
+        <v>43875</v>
+      </c>
+      <c r="W14" s="2">
+        <v>43876</v>
+      </c>
+      <c r="X14" s="2">
+        <v>43877</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A18" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B19" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43880</v>
+      </c>
+      <c r="D19" s="21">
+        <v>43881</v>
+      </c>
+      <c r="E19" s="22">
+        <v>43882</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43883</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43884</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43885</v>
+      </c>
+      <c r="I19" s="2">
+        <v>43886</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43887</v>
+      </c>
+      <c r="K19" s="21">
+        <v>43888</v>
+      </c>
+      <c r="L19" s="22">
+        <v>43889</v>
+      </c>
+      <c r="M19" s="2">
+        <v>43890</v>
+      </c>
+      <c r="N19" s="2">
+        <v>43891</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43892</v>
+      </c>
+      <c r="P19" s="2">
+        <v>43893</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>43894</v>
+      </c>
+      <c r="R19" s="2">
+        <v>43895</v>
+      </c>
+      <c r="S19" s="21">
+        <v>43896</v>
+      </c>
+      <c r="T19" s="22">
+        <v>43897</v>
+      </c>
+      <c r="U19" s="2">
+        <v>43898</v>
+      </c>
+      <c r="V19" s="2">
+        <v>43899</v>
+      </c>
+      <c r="W19" s="2">
+        <v>43900</v>
+      </c>
+      <c r="X19" s="2">
+        <v>43901</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A22" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B23" s="23">
+        <v>43903</v>
+      </c>
+      <c r="C23" s="24">
+        <v>43904</v>
+      </c>
+      <c r="D23" s="20">
+        <v>43905</v>
+      </c>
+      <c r="E23" s="20">
+        <v>43906</v>
+      </c>
+      <c r="F23" s="20">
+        <v>43907</v>
+      </c>
+      <c r="G23" s="20">
+        <v>43908</v>
+      </c>
+      <c r="H23" s="20">
+        <v>43909</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="A18:Y18"/>
+    <mergeCell ref="A22:Y22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3211,10 +3902,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3231,33 +3922,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3335,7 +4026,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
@@ -3343,33 +4034,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3446,10 +4137,271 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A13" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B14" s="2">
+        <v>43855</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43856</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43857</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43858</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43859</v>
+      </c>
+      <c r="G14" s="21">
+        <v>43860</v>
+      </c>
+      <c r="H14" s="22">
+        <v>43861</v>
+      </c>
+      <c r="I14" s="2">
+        <v>43862</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43863</v>
+      </c>
+      <c r="K14" s="2">
+        <v>43864</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43865</v>
+      </c>
+      <c r="M14" s="2">
+        <v>43866</v>
+      </c>
+      <c r="N14" s="21">
+        <v>43867</v>
+      </c>
+      <c r="O14" s="22">
+        <v>43868</v>
+      </c>
+      <c r="P14" s="2">
+        <v>43869</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>43870</v>
+      </c>
+      <c r="R14" s="2">
+        <v>43871</v>
+      </c>
+      <c r="S14" s="2">
+        <v>43872</v>
+      </c>
+      <c r="T14" s="2">
+        <v>43873</v>
+      </c>
+      <c r="U14" s="21">
+        <v>43874</v>
+      </c>
+      <c r="V14" s="22">
+        <v>43875</v>
+      </c>
+      <c r="W14" s="2">
+        <v>43876</v>
+      </c>
+      <c r="X14" s="2">
+        <v>43877</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A18" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B19" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43880</v>
+      </c>
+      <c r="D19" s="21">
+        <v>43881</v>
+      </c>
+      <c r="E19" s="22">
+        <v>43882</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43883</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43884</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43885</v>
+      </c>
+      <c r="I19" s="2">
+        <v>43886</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43887</v>
+      </c>
+      <c r="K19" s="21">
+        <v>43888</v>
+      </c>
+      <c r="L19" s="22">
+        <v>43889</v>
+      </c>
+      <c r="M19" s="2">
+        <v>43890</v>
+      </c>
+      <c r="N19" s="2">
+        <v>43891</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43892</v>
+      </c>
+      <c r="P19" s="2">
+        <v>43893</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>43894</v>
+      </c>
+      <c r="R19" s="2">
+        <v>43895</v>
+      </c>
+      <c r="S19" s="21">
+        <v>43896</v>
+      </c>
+      <c r="T19" s="22">
+        <v>43897</v>
+      </c>
+      <c r="U19" s="2">
+        <v>43898</v>
+      </c>
+      <c r="V19" s="2">
+        <v>43899</v>
+      </c>
+      <c r="W19" s="2">
+        <v>43900</v>
+      </c>
+      <c r="X19" s="2">
+        <v>43901</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A22" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B23" s="23">
+        <v>43903</v>
+      </c>
+      <c r="C23" s="24">
+        <v>43904</v>
+      </c>
+      <c r="D23" s="20">
+        <v>43905</v>
+      </c>
+      <c r="E23" s="20">
+        <v>43906</v>
+      </c>
+      <c r="F23" s="20">
+        <v>43907</v>
+      </c>
+      <c r="G23" s="20">
+        <v>43908</v>
+      </c>
+      <c r="H23" s="20">
+        <v>43909</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="A18:Y18"/>
+    <mergeCell ref="A22:Y22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3461,10 +4413,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3473,40 +4425,41 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="64"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="101"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3584,38 +4537,41 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
+      <c r="L3" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3692,10 +4648,271 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A13" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B14" s="2">
+        <v>43855</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43856</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43857</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43858</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43859</v>
+      </c>
+      <c r="G14" s="21">
+        <v>43860</v>
+      </c>
+      <c r="H14" s="22">
+        <v>43861</v>
+      </c>
+      <c r="I14" s="2">
+        <v>43862</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43863</v>
+      </c>
+      <c r="K14" s="2">
+        <v>43864</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43865</v>
+      </c>
+      <c r="M14" s="2">
+        <v>43866</v>
+      </c>
+      <c r="N14" s="21">
+        <v>43867</v>
+      </c>
+      <c r="O14" s="22">
+        <v>43868</v>
+      </c>
+      <c r="P14" s="2">
+        <v>43869</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>43870</v>
+      </c>
+      <c r="R14" s="2">
+        <v>43871</v>
+      </c>
+      <c r="S14" s="2">
+        <v>43872</v>
+      </c>
+      <c r="T14" s="2">
+        <v>43873</v>
+      </c>
+      <c r="U14" s="21">
+        <v>43874</v>
+      </c>
+      <c r="V14" s="22">
+        <v>43875</v>
+      </c>
+      <c r="W14" s="2">
+        <v>43876</v>
+      </c>
+      <c r="X14" s="2">
+        <v>43877</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A18" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B19" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43880</v>
+      </c>
+      <c r="D19" s="21">
+        <v>43881</v>
+      </c>
+      <c r="E19" s="22">
+        <v>43882</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43883</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43884</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43885</v>
+      </c>
+      <c r="I19" s="2">
+        <v>43886</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43887</v>
+      </c>
+      <c r="K19" s="21">
+        <v>43888</v>
+      </c>
+      <c r="L19" s="22">
+        <v>43889</v>
+      </c>
+      <c r="M19" s="2">
+        <v>43890</v>
+      </c>
+      <c r="N19" s="2">
+        <v>43891</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43892</v>
+      </c>
+      <c r="P19" s="2">
+        <v>43893</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>43894</v>
+      </c>
+      <c r="R19" s="2">
+        <v>43895</v>
+      </c>
+      <c r="S19" s="21">
+        <v>43896</v>
+      </c>
+      <c r="T19" s="22">
+        <v>43897</v>
+      </c>
+      <c r="U19" s="2">
+        <v>43898</v>
+      </c>
+      <c r="V19" s="2">
+        <v>43899</v>
+      </c>
+      <c r="W19" s="2">
+        <v>43900</v>
+      </c>
+      <c r="X19" s="2">
+        <v>43901</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A22" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B23" s="23">
+        <v>43903</v>
+      </c>
+      <c r="C23" s="24">
+        <v>43904</v>
+      </c>
+      <c r="D23" s="20">
+        <v>43905</v>
+      </c>
+      <c r="E23" s="20">
+        <v>43906</v>
+      </c>
+      <c r="F23" s="20">
+        <v>43907</v>
+      </c>
+      <c r="G23" s="20">
+        <v>43908</v>
+      </c>
+      <c r="H23" s="20">
+        <v>43909</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="A18:Y18"/>
+    <mergeCell ref="A22:Y22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3707,51 +4924,52 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3829,38 +5047,41 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="L3" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3937,10 +5158,271 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A13" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B14" s="2">
+        <v>43855</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43856</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43857</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43858</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43859</v>
+      </c>
+      <c r="G14" s="21">
+        <v>43860</v>
+      </c>
+      <c r="H14" s="22">
+        <v>43861</v>
+      </c>
+      <c r="I14" s="2">
+        <v>43862</v>
+      </c>
+      <c r="J14" s="2">
+        <v>43863</v>
+      </c>
+      <c r="K14" s="2">
+        <v>43864</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43865</v>
+      </c>
+      <c r="M14" s="2">
+        <v>43866</v>
+      </c>
+      <c r="N14" s="21">
+        <v>43867</v>
+      </c>
+      <c r="O14" s="22">
+        <v>43868</v>
+      </c>
+      <c r="P14" s="2">
+        <v>43869</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>43870</v>
+      </c>
+      <c r="R14" s="2">
+        <v>43871</v>
+      </c>
+      <c r="S14" s="2">
+        <v>43872</v>
+      </c>
+      <c r="T14" s="2">
+        <v>43873</v>
+      </c>
+      <c r="U14" s="21">
+        <v>43874</v>
+      </c>
+      <c r="V14" s="22">
+        <v>43875</v>
+      </c>
+      <c r="W14" s="2">
+        <v>43876</v>
+      </c>
+      <c r="X14" s="2">
+        <v>43877</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A18" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B19" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43880</v>
+      </c>
+      <c r="D19" s="21">
+        <v>43881</v>
+      </c>
+      <c r="E19" s="22">
+        <v>43882</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43883</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43884</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43885</v>
+      </c>
+      <c r="I19" s="2">
+        <v>43886</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43887</v>
+      </c>
+      <c r="K19" s="21">
+        <v>43888</v>
+      </c>
+      <c r="L19" s="22">
+        <v>43889</v>
+      </c>
+      <c r="M19" s="2">
+        <v>43890</v>
+      </c>
+      <c r="N19" s="2">
+        <v>43891</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43892</v>
+      </c>
+      <c r="P19" s="2">
+        <v>43893</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>43894</v>
+      </c>
+      <c r="R19" s="2">
+        <v>43895</v>
+      </c>
+      <c r="S19" s="21">
+        <v>43896</v>
+      </c>
+      <c r="T19" s="22">
+        <v>43897</v>
+      </c>
+      <c r="U19" s="2">
+        <v>43898</v>
+      </c>
+      <c r="V19" s="2">
+        <v>43899</v>
+      </c>
+      <c r="W19" s="2">
+        <v>43900</v>
+      </c>
+      <c r="X19" s="2">
+        <v>43901</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A22" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B23" s="23">
+        <v>43903</v>
+      </c>
+      <c r="C23" s="24">
+        <v>43904</v>
+      </c>
+      <c r="D23" s="20">
+        <v>43905</v>
+      </c>
+      <c r="E23" s="20">
+        <v>43906</v>
+      </c>
+      <c r="F23" s="20">
+        <v>43907</v>
+      </c>
+      <c r="G23" s="20">
+        <v>43908</v>
+      </c>
+      <c r="H23" s="20">
+        <v>43909</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="A18:Y18"/>
+    <mergeCell ref="A22:Y22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3952,10 +5434,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3965,40 +5447,41 @@
     <col min="4" max="5" width="9" style="39"/>
     <col min="6" max="7" width="9.796875" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9" style="39"/>
-    <col min="11" max="11" width="11.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="39"/>
-    <col min="13" max="14" width="9.796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.796875" style="39" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
@@ -4076,9 +5559,6 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" s="39" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="38" t="s">
         <v>16</v>
       </c>
@@ -4088,43 +5568,107 @@
       <c r="O3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="54" t="s">
         <v>19</v>
       </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="K5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="C6" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="55" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
@@ -4202,17 +5746,488 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="L11" s="39" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="W11" s="39" t="s">
+      <c r="W11" s="54" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="M14" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+    </row>
+    <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A15" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A16"/>
+      <c r="B16" s="2">
+        <v>43855</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43856</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43857</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43858</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43859</v>
+      </c>
+      <c r="G16" s="21">
+        <v>43860</v>
+      </c>
+      <c r="H16" s="22">
+        <v>43861</v>
+      </c>
+      <c r="I16" s="2">
+        <v>43862</v>
+      </c>
+      <c r="J16" s="2">
+        <v>43863</v>
+      </c>
+      <c r="K16" s="2">
+        <v>43864</v>
+      </c>
+      <c r="L16" s="2">
+        <v>43865</v>
+      </c>
+      <c r="M16" s="2">
+        <v>43866</v>
+      </c>
+      <c r="N16" s="21">
+        <v>43867</v>
+      </c>
+      <c r="O16" s="22">
+        <v>43868</v>
+      </c>
+      <c r="P16" s="2">
+        <v>43869</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>43870</v>
+      </c>
+      <c r="R16" s="2">
+        <v>43871</v>
+      </c>
+      <c r="S16" s="2">
+        <v>43872</v>
+      </c>
+      <c r="T16" s="2">
+        <v>43873</v>
+      </c>
+      <c r="U16" s="21">
+        <v>43874</v>
+      </c>
+      <c r="V16" s="22">
+        <v>43875</v>
+      </c>
+      <c r="W16" s="2">
+        <v>43876</v>
+      </c>
+      <c r="X16" s="2">
+        <v>43877</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+    </row>
+    <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A20" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21"/>
+      <c r="B21" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43880</v>
+      </c>
+      <c r="D21" s="21">
+        <v>43881</v>
+      </c>
+      <c r="E21" s="22">
+        <v>43882</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43883</v>
+      </c>
+      <c r="G21" s="2">
+        <v>43884</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43885</v>
+      </c>
+      <c r="I21" s="2">
+        <v>43886</v>
+      </c>
+      <c r="J21" s="2">
+        <v>43887</v>
+      </c>
+      <c r="K21" s="21">
+        <v>43888</v>
+      </c>
+      <c r="L21" s="22">
+        <v>43889</v>
+      </c>
+      <c r="M21" s="2">
+        <v>43890</v>
+      </c>
+      <c r="N21" s="2">
+        <v>43891</v>
+      </c>
+      <c r="O21" s="2">
+        <v>43892</v>
+      </c>
+      <c r="P21" s="2">
+        <v>43893</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>43894</v>
+      </c>
+      <c r="R21" s="2">
+        <v>43895</v>
+      </c>
+      <c r="S21" s="21">
+        <v>43896</v>
+      </c>
+      <c r="T21" s="22">
+        <v>43897</v>
+      </c>
+      <c r="U21" s="2">
+        <v>43898</v>
+      </c>
+      <c r="V21" s="2">
+        <v>43899</v>
+      </c>
+      <c r="W21" s="2">
+        <v>43900</v>
+      </c>
+      <c r="X21" s="2">
+        <v>43901</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+    </row>
+    <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="A24" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A25"/>
+      <c r="B25" s="23">
+        <v>43903</v>
+      </c>
+      <c r="C25" s="24">
+        <v>43904</v>
+      </c>
+      <c r="D25" s="20">
+        <v>43905</v>
+      </c>
+      <c r="E25" s="20">
+        <v>43906</v>
+      </c>
+      <c r="F25" s="20">
+        <v>43907</v>
+      </c>
+      <c r="G25" s="20">
+        <v>43908</v>
+      </c>
+      <c r="H25" s="20">
+        <v>43909</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A24:Y24"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="A20:Y20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\git\3DGame_Progress\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
     <sheet name="青木(モデル)" sheetId="8" r:id="rId2"/>
-    <sheet name="大浦(モーション)" sheetId="9" r:id="rId3"/>
-    <sheet name="齋藤(モーション)" sheetId="10" r:id="rId4"/>
+    <sheet name="齋藤(モーション)" sheetId="10" r:id="rId3"/>
+    <sheet name="大浦(モーション)" sheetId="9" r:id="rId4"/>
     <sheet name="佐藤(プログラマー)" sheetId="11" r:id="rId5"/>
     <sheet name="羽鳥(プログラマー)" sheetId="12" r:id="rId6"/>
     <sheet name="山田(モデル)" sheetId="13" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -163,16 +163,6 @@
     <t>Git教えました</t>
     <rPh sb="3" eb="4">
       <t>オシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデル作り開始</t>
-    <rPh sb="3" eb="4">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -407,7 +397,147 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>モーション(2足)開始</t>
+    <rPh sb="7" eb="8">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーション(４足)開始</t>
+    <rPh sb="7" eb="8">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成予定</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>休み</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーション(4足)開始</t>
+    <rPh sb="7" eb="8">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラム開始</t>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SE追加</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像の追加</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>余裕があれば3Dモデルも</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーション(２足)開始</t>
+    <rPh sb="7" eb="8">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>余裕があればモーションも</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>モーションプログラム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>武器の挙動</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の出現</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIの追加</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -579,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +815,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +1014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,12 +1156,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,9 +1183,96 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,91 +1333,46 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1479,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:N16"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1505,33 +1683,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
@@ -1613,14 +1791,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="86" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="103" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1629,197 +1807,197 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="100" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="66"/>
+      <c r="S3" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="93"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="60"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="77"/>
+      <c r="H4" s="104"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="74"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="69"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="96"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="60"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="77"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="74"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="69"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="96"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="60"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="77"/>
+      <c r="H6" s="104"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="74"/>
+      <c r="O6" s="101"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="69"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="96"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="60"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="77"/>
+      <c r="H7" s="104"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="74"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="69"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="96"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="60"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="78"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="75"/>
+      <c r="O8" s="102"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="72"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="99"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -1900,21 +2078,21 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="89"/>
+      <c r="B11" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -1931,19 +2109,19 @@
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="92"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="37"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -1960,19 +2138,19 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="92"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
       <c r="O13" s="37"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -1989,19 +2167,19 @@
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="92"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="37"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -2018,19 +2196,19 @@
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="92"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="37"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -2047,19 +2225,19 @@
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="95"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="72"/>
       <c r="O16" s="37"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -2073,33 +2251,33 @@
       <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="40"/>
@@ -2184,8 +2362,8 @@
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="79" t="s">
-        <v>27</v>
+      <c r="F19" s="56" t="s">
+        <v>26</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="25"/>
@@ -2197,8 +2375,8 @@
       <c r="N19" s="1"/>
       <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="82" t="s">
-        <v>33</v>
+      <c r="Q19" s="59" t="s">
+        <v>32</v>
       </c>
       <c r="R19" s="25"/>
       <c r="S19" s="27"/>
@@ -2217,7 +2395,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="80"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="1"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
@@ -2228,7 +2406,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="85"/>
+      <c r="Q20" s="62"/>
       <c r="R20" s="25"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2246,7 +2424,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="80"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="1"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
@@ -2257,7 +2435,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="85"/>
+      <c r="Q21" s="62"/>
       <c r="R21" s="25"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2275,7 +2453,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="80"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="1"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
@@ -2286,7 +2464,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="85"/>
+      <c r="Q22" s="62"/>
       <c r="R22" s="25"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2304,7 +2482,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="80"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="1"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
@@ -2315,7 +2493,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="85"/>
+      <c r="Q23" s="62"/>
       <c r="R23" s="25"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -2333,7 +2511,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="81"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="1"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
@@ -2344,7 +2522,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="86"/>
+      <c r="Q24" s="63"/>
       <c r="R24" s="25"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
@@ -2355,33 +2533,33 @@
       <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
@@ -2463,15 +2641,15 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="105" t="s">
-        <v>28</v>
+      <c r="C27" s="83" t="s">
+        <v>27</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="82" t="s">
-        <v>32</v>
+      <c r="H27" s="59" t="s">
+        <v>31</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2482,15 +2660,15 @@
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="102" t="s">
-        <v>29</v>
+      <c r="R27" s="80" t="s">
+        <v>28</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="82" t="s">
-        <v>31</v>
+      <c r="W27" s="59" t="s">
+        <v>30</v>
       </c>
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
@@ -2500,12 +2678,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="106"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="83"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2515,12 +2693,12 @@
       <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="103"/>
+      <c r="R28" s="81"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="83"/>
+      <c r="W28" s="60"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
     </row>
@@ -2529,12 +2707,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="106"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="83"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2544,12 +2722,12 @@
       <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="103"/>
+      <c r="R29" s="81"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="83"/>
+      <c r="W29" s="60"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
     </row>
@@ -2558,12 +2736,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="106"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="83"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2573,12 +2751,12 @@
       <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="103"/>
+      <c r="R30" s="81"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="83"/>
+      <c r="W30" s="60"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
     </row>
@@ -2587,12 +2765,12 @@
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="106"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="83"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2602,12 +2780,12 @@
       <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="103"/>
+      <c r="R31" s="81"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="83"/>
+      <c r="W31" s="60"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
     </row>
@@ -2616,12 +2794,12 @@
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="107"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="84"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2631,26 +2809,26 @@
       <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="104"/>
+      <c r="R32" s="82"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="84"/>
+      <c r="W32" s="61"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="101"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
@@ -2686,8 +2864,8 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="96" t="s">
-        <v>30</v>
+      <c r="H35" s="73" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2700,7 +2878,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="97"/>
+      <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
@@ -2712,7 +2890,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="97"/>
+      <c r="H37" s="74"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
@@ -2724,7 +2902,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="97"/>
+      <c r="H38" s="74"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
@@ -2736,7 +2914,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="97"/>
+      <c r="H39" s="74"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -2748,10 +2926,18 @@
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="98"/>
+      <c r="H40" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2762,14 +2948,6 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2784,8 +2962,8 @@
   </sheetPr>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2795,7 +2973,7 @@
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
@@ -2807,33 +2985,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -2912,7 +3090,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C3" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -2920,33 +3098,35 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
+        <v>33</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="I4" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
@@ -2954,49 +3134,49 @@
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
+        <v>33</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -3074,39 +3254,41 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="49" t="s">
-        <v>26</v>
+      <c r="B7" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="115" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>37</v>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
@@ -3122,33 +3304,33 @@
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
@@ -3224,34 +3406,39 @@
         <v>43878</v>
       </c>
     </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="I11" s="118" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
@@ -3328,33 +3515,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
@@ -3380,12 +3567,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A18:Y18"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A9:Y9"/>
     <mergeCell ref="A14:Y14"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3399,48 +3587,55 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3453,7 +3648,7 @@
       <c r="D2" s="2">
         <v>44175</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="117">
         <v>44176</v>
       </c>
       <c r="F2" s="9">
@@ -3517,39 +3712,51 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C4" s="18" t="s">
-        <v>12</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="C3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="113"/>
+      <c r="Q3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3626,34 +3833,52 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B11" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="I11" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O12" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -3729,34 +3954,39 @@
         <v>43878</v>
       </c>
     </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="I15" s="118" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -3833,33 +4063,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -3885,12 +4115,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
     <mergeCell ref="A13:Y13"/>
     <mergeCell ref="A18:Y18"/>
     <mergeCell ref="A22:Y22"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3904,51 +4135,55 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:Y18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4026,41 +4261,53 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
+      <c r="Q3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="C4" s="31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4137,34 +4384,68 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B11" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="I12" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4240,34 +4521,39 @@
         <v>43878</v>
       </c>
     </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="I15" s="118" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4344,33 +4630,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4396,12 +4682,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
     <mergeCell ref="A13:Y13"/>
     <mergeCell ref="A18:Y18"/>
     <mergeCell ref="A22:Y22"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4416,50 +4703,52 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="101"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="78"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4537,41 +4826,67 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="30" t="s">
-        <v>39</v>
+      <c r="Q3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q6" s="118" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4648,34 +4963,76 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B11" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="N11" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+    </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4751,34 +5108,40 @@
         <v>43878</v>
       </c>
     </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+    </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4855,33 +5218,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4907,12 +5270,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
     <mergeCell ref="A13:Y13"/>
     <mergeCell ref="A18:Y18"/>
     <mergeCell ref="A22:Y22"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4926,8 +5290,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4943,33 +5307,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -5047,41 +5411,41 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5158,34 +5522,41 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B11" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+    </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5262,33 +5633,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5365,33 +5736,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5417,12 +5788,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
     <mergeCell ref="A13:Y13"/>
     <mergeCell ref="A18:Y18"/>
     <mergeCell ref="A22:Y22"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5436,8 +5808,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5446,7 +5818,9 @@
     <col min="2" max="3" width="8" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="39"/>
     <col min="6" max="7" width="9.796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="39"/>
+    <col min="8" max="8" width="9" style="39"/>
+    <col min="9" max="9" width="22.796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="39"/>
     <col min="11" max="11" width="11" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="39"/>
     <col min="13" max="13" width="14.3984375" style="39" bestFit="1" customWidth="1"/>
@@ -5455,33 +5829,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
@@ -5560,16 +5934,16 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="K3" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
@@ -5582,45 +5956,47 @@
       <c r="Y3" s="43"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="K4" s="54" t="s">
-        <v>19</v>
+      <c r="K4" s="52" t="s">
+        <v>18</v>
       </c>
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
+      <c r="Q4" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="K5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
+      <c r="K5" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="44"/>
@@ -5637,38 +6013,38 @@
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
-      <c r="R6" s="55" t="s">
-        <v>38</v>
+      <c r="R6" s="53" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
@@ -5746,54 +6122,41 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11" s="54" t="s">
-        <v>26</v>
-      </c>
+      <c r="B11" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="110"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="M14" s="53" t="s">
-        <v>37</v>
+      <c r="M14" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
@@ -5809,33 +6172,33 @@
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16"/>
@@ -5921,7 +6284,9 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17"/>
+      <c r="I17" s="118" t="s">
+        <v>48</v>
+      </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -5994,33 +6359,33 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -6152,33 +6517,33 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25"/>
@@ -6222,12 +6587,13 @@
       <c r="Y25"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A24:Y24"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A9:Y9"/>
     <mergeCell ref="A15:Y15"/>
     <mergeCell ref="A20:Y20"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -537,6 +537,16 @@
     <t>UIの追加</t>
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害物の動き</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1014,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,156 +1193,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1348,9 +1208,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1374,6 +1231,162 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,33 +1696,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
@@ -1791,14 +1804,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="87" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1807,197 +1820,197 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="100" t="s">
+      <c r="O3" s="84" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="91" t="s">
+      <c r="S3" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="93"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="77"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="87"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="104"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="101"/>
+      <c r="O4" s="85"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="96"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="80"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="87"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="104"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="101"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="96"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="80"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="87"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="104"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="101"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="96"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="80"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="87"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="104"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="101"/>
+      <c r="O7" s="85"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="96"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="80"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="87"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="105"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="102"/>
+      <c r="O8" s="86"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="99"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="83"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -2078,21 +2091,21 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="100"/>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -2109,19 +2122,19 @@
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="103"/>
       <c r="O12" s="37"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -2138,19 +2151,19 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="103"/>
       <c r="O13" s="37"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -2167,19 +2180,19 @@
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="69"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="103"/>
       <c r="O14" s="37"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -2196,19 +2209,19 @@
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="69"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="103"/>
       <c r="O15" s="37"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -2225,19 +2238,19 @@
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="72"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="106"/>
       <c r="O16" s="37"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -2251,33 +2264,33 @@
       <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="40"/>
@@ -2362,7 +2375,7 @@
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="90" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1"/>
@@ -2375,7 +2388,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="59" t="s">
+      <c r="Q19" s="93" t="s">
         <v>32</v>
       </c>
       <c r="R19" s="25"/>
@@ -2395,7 +2408,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="57"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="1"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
@@ -2406,7 +2419,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="62"/>
+      <c r="Q20" s="96"/>
       <c r="R20" s="25"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2424,7 +2437,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="57"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="1"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
@@ -2435,7 +2448,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="62"/>
+      <c r="Q21" s="96"/>
       <c r="R21" s="25"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2453,7 +2466,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="57"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="1"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
@@ -2464,7 +2477,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="62"/>
+      <c r="Q22" s="96"/>
       <c r="R22" s="25"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2482,7 +2495,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="57"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="1"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
@@ -2493,7 +2506,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="62"/>
+      <c r="Q23" s="96"/>
       <c r="R23" s="25"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -2511,7 +2524,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="58"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="1"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
@@ -2522,7 +2535,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="63"/>
+      <c r="Q24" s="97"/>
       <c r="R24" s="25"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
@@ -2533,33 +2546,33 @@
       <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
@@ -2641,14 +2654,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="116" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="93" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -2660,14 +2673,14 @@
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="80" t="s">
+      <c r="R27" s="113" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="59" t="s">
+      <c r="W27" s="93" t="s">
         <v>30</v>
       </c>
       <c r="X27" s="27"/>
@@ -2678,12 +2691,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="84"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="60"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2693,12 +2706,12 @@
       <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="81"/>
+      <c r="R28" s="114"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="60"/>
+      <c r="W28" s="94"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
     </row>
@@ -2707,12 +2720,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="84"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="60"/>
+      <c r="H29" s="94"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2722,12 +2735,12 @@
       <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="81"/>
+      <c r="R29" s="114"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="60"/>
+      <c r="W29" s="94"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
     </row>
@@ -2736,12 +2749,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="84"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="60"/>
+      <c r="H30" s="94"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2751,12 +2764,12 @@
       <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="81"/>
+      <c r="R30" s="114"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="60"/>
+      <c r="W30" s="94"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
     </row>
@@ -2765,12 +2778,12 @@
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="84"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="60"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2780,12 +2793,12 @@
       <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="81"/>
+      <c r="R31" s="114"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="60"/>
+      <c r="W31" s="94"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
     </row>
@@ -2794,12 +2807,12 @@
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="85"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="61"/>
+      <c r="H32" s="95"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2809,26 +2822,26 @@
       <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="82"/>
+      <c r="R32" s="115"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="61"/>
+      <c r="W32" s="95"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="78"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
@@ -2864,7 +2877,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2878,7 +2891,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="74"/>
+      <c r="H36" s="108"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
@@ -2890,7 +2903,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="74"/>
+      <c r="H37" s="108"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
@@ -2902,7 +2915,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="74"/>
+      <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
@@ -2914,7 +2927,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="74"/>
+      <c r="H39" s="108"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -2926,18 +2939,10 @@
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="75"/>
+      <c r="H40" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2948,6 +2953,14 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,7 +2976,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A18" sqref="A18:Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2985,33 +2998,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3112,17 +3125,17 @@
       <c r="P3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="116" t="s">
+      <c r="Q3" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="I4" s="30" t="s">
@@ -3150,33 +3163,33 @@
       <c r="Y4" s="50"/>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -3254,22 +3267,22 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="115" t="s">
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="115" t="s">
+      <c r="W7" s="64" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3304,33 +3317,33 @@
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
@@ -3407,38 +3420,38 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I11" s="118" t="s">
+      <c r="I11" s="67" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
@@ -3515,33 +3528,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
@@ -3588,7 +3601,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3602,40 +3615,40 @@
     <col min="10" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.796875" bestFit="1" customWidth="1"/>
     <col min="18" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3648,7 +3661,7 @@
       <c r="D2" s="2">
         <v>44175</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="66">
         <v>44176</v>
       </c>
       <c r="F2" s="9">
@@ -3716,47 +3729,47 @@
       <c r="C3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="113"/>
+      <c r="I3" s="62"/>
       <c r="Q3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3834,11 +3847,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="I11" s="52" t="s">
         <v>46</v>
       </c>
@@ -3847,38 +3860,38 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="O12" s="30" t="s">
+      <c r="P12" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -3955,38 +3968,38 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4063,33 +4076,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4157,33 +4170,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4264,13 +4277,13 @@
       <c r="Q3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="29" t="s">
         <v>41</v>
       </c>
@@ -4281,33 +4294,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4385,33 +4398,33 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="108" t="s">
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="108" t="s">
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="68" t="s">
         <v>56</v>
       </c>
       <c r="U12" s="30" t="s">
@@ -4419,33 +4432,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4522,38 +4535,38 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4630,33 +4643,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4703,7 +4716,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A9" sqref="A9:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4722,33 +4735,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="78"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="112"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4842,7 +4855,7 @@
       <c r="Y3" s="28"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="L5" t="s">
+      <c r="L5" s="31" t="s">
         <v>54</v>
       </c>
       <c r="V5" s="48" t="s">
@@ -4855,38 +4868,38 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="Q6" s="118" t="s">
+      <c r="Q6" s="67" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4964,12 +4977,12 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="N11" s="118" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="N11" s="67" t="s">
         <v>41</v>
       </c>
       <c r="O11" s="29" t="s">
@@ -5006,33 +5019,33 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5115,33 +5128,33 @@
       <c r="E15" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5218,33 +5231,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5280,6 +5293,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5291,14 +5305,15 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.19921875" bestFit="1" customWidth="1"/>
@@ -5307,33 +5322,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -5419,33 +5434,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5523,40 +5538,43 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5633,33 +5651,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5736,33 +5754,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5829,33 +5847,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
@@ -5967,14 +5985,14 @@
       <c r="Q4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="K5" s="54" t="s">
@@ -6018,33 +6036,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
@@ -6122,11 +6140,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -6137,7 +6155,7 @@
       <c r="L11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="W11" s="110"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B12" s="55"/>
@@ -6172,33 +6190,33 @@
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16"/>
@@ -6284,7 +6302,7 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="118" t="s">
+      <c r="I17" s="67" t="s">
         <v>48</v>
       </c>
       <c r="J17"/>
@@ -6359,33 +6377,33 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -6517,33 +6535,33 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25"/>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\git\3DGame_Progress\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\新しいフォルダー (2)\3DGame_Progress\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -547,6 +547,26 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4足完成</t>
+    <rPh sb="1" eb="2">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害物完成</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1232,161 +1252,161 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1696,33 +1716,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
@@ -1804,14 +1824,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="100" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="117" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1820,197 +1840,197 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="114" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="72" t="s">
+      <c r="R3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="77"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="107"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="71"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="88"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="85"/>
+      <c r="O4" s="115"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="80"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="110"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="71"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="88"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="85"/>
+      <c r="O5" s="115"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="80"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="110"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="71"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="88"/>
+      <c r="H6" s="118"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="85"/>
+      <c r="O6" s="115"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="80"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="110"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="71"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="88"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="85"/>
+      <c r="O7" s="115"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="80"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="110"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="71"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="89"/>
+      <c r="H8" s="119"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="86"/>
+      <c r="O8" s="116"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="83"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="113"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -2091,21 +2111,21 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="100"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -2122,19 +2142,19 @@
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="37"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -2151,19 +2171,19 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
       <c r="O13" s="37"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -2180,19 +2200,19 @@
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="103"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
       <c r="O14" s="37"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -2209,19 +2229,19 @@
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="103"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="83"/>
       <c r="O15" s="37"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -2238,19 +2258,19 @@
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="106"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
       <c r="O16" s="37"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -2264,33 +2284,33 @@
       <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="40"/>
@@ -2375,7 +2395,7 @@
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="70" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1"/>
@@ -2388,7 +2408,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="93" t="s">
+      <c r="Q19" s="73" t="s">
         <v>32</v>
       </c>
       <c r="R19" s="25"/>
@@ -2408,7 +2428,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="91"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="1"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
@@ -2419,7 +2439,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="96"/>
+      <c r="Q20" s="76"/>
       <c r="R20" s="25"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2437,7 +2457,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="91"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="1"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
@@ -2448,7 +2468,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="96"/>
+      <c r="Q21" s="76"/>
       <c r="R21" s="25"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2466,7 +2486,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="91"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="1"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
@@ -2477,7 +2497,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="96"/>
+      <c r="Q22" s="76"/>
       <c r="R22" s="25"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2495,7 +2515,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="91"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="1"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
@@ -2506,7 +2526,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="96"/>
+      <c r="Q23" s="76"/>
       <c r="R23" s="25"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -2524,7 +2544,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="92"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="1"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
@@ -2535,7 +2555,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="97"/>
+      <c r="Q24" s="77"/>
       <c r="R24" s="25"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
@@ -2546,33 +2566,33 @@
       <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
@@ -2654,14 +2674,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="97" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="73" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -2673,14 +2693,14 @@
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="113" t="s">
+      <c r="R27" s="94" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="93" t="s">
+      <c r="W27" s="73" t="s">
         <v>30</v>
       </c>
       <c r="X27" s="27"/>
@@ -2691,12 +2711,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="117"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="94"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2706,12 +2726,12 @@
       <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="114"/>
+      <c r="R28" s="95"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="94"/>
+      <c r="W28" s="74"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
     </row>
@@ -2720,12 +2740,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="117"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="94"/>
+      <c r="H29" s="74"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2735,12 +2755,12 @@
       <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="114"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="94"/>
+      <c r="W29" s="74"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
     </row>
@@ -2749,12 +2769,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="117"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="94"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2764,12 +2784,12 @@
       <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="114"/>
+      <c r="R30" s="95"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="94"/>
+      <c r="W30" s="74"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
     </row>
@@ -2778,12 +2798,12 @@
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="117"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="94"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2793,12 +2813,12 @@
       <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="114"/>
+      <c r="R31" s="95"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="94"/>
+      <c r="W31" s="74"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
     </row>
@@ -2807,12 +2827,12 @@
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="118"/>
+      <c r="C32" s="99"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="95"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2822,26 +2842,26 @@
       <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="115"/>
+      <c r="R32" s="96"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="95"/>
+      <c r="W32" s="75"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
@@ -2877,7 +2897,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="107" t="s">
+      <c r="H35" s="87" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2891,7 +2911,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="108"/>
+      <c r="H36" s="88"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
@@ -2903,7 +2923,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="108"/>
+      <c r="H37" s="88"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
@@ -2915,7 +2935,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="108"/>
+      <c r="H38" s="88"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
@@ -2927,7 +2947,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="108"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -2939,10 +2959,18 @@
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="109"/>
+      <c r="H40" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2953,14 +2981,6 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2998,33 +3018,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3163,33 +3183,33 @@
       <c r="Y4" s="50"/>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -3267,11 +3287,11 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
       <c r="E7" s="61"/>
       <c r="F7" s="61"/>
       <c r="G7" s="61"/>
@@ -3317,33 +3337,33 @@
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
@@ -3425,33 +3445,33 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
@@ -3528,33 +3548,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
@@ -3622,33 +3642,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3743,33 +3763,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3847,11 +3867,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
       <c r="I11" s="52" t="s">
         <v>46</v>
       </c>
@@ -3865,33 +3885,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -3973,33 +3993,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4076,33 +4096,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4170,33 +4190,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4294,33 +4314,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4398,11 +4418,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
@@ -4432,33 +4452,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4540,33 +4560,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4643,33 +4663,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4735,33 +4755,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="112"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="92"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4873,33 +4893,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4977,11 +4997,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
       <c r="N11" s="67" t="s">
         <v>41</v>
       </c>
@@ -5019,33 +5039,33 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5128,33 +5148,33 @@
       <c r="E15" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5231,33 +5251,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5304,7 +5324,7 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5322,33 +5342,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -5434,33 +5454,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5538,43 +5558,43 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="120" t="s">
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="69" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5651,33 +5671,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5754,33 +5774,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5826,8 +5846,8 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5843,37 +5863,39 @@
     <col min="12" max="12" width="9" style="39"/>
     <col min="13" max="13" width="14.3984375" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="39"/>
+    <col min="15" max="18" width="9" style="39"/>
+    <col min="19" max="19" width="10.59765625" style="39" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
@@ -6036,33 +6058,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
@@ -6140,11 +6162,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -6154,6 +6176,9 @@
       <c r="K11" s="43"/>
       <c r="L11" s="33" t="s">
         <v>17</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="W11" s="60"/>
     </row>
@@ -6171,6 +6196,14 @@
       <c r="L12" s="54" t="s">
         <v>17</v>
       </c>
+      <c r="S12" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="S13" s="39" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="M14" s="51" t="s">
@@ -6190,33 +6223,33 @@
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16"/>
@@ -6377,33 +6410,33 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -6535,33 +6568,33 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25"/>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\新しいフォルダー (2)\3DGame_Progress\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\3DS\3DGame_Progress\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -1255,6 +1255,69 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1324,9 +1387,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,66 +1403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1716,33 +1716,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
@@ -1824,14 +1824,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="88" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1840,197 +1840,197 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="85" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="102" t="s">
+      <c r="R3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="105" t="s">
+      <c r="S3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="107"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="78"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="101"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="118"/>
+      <c r="H4" s="89"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="115"/>
+      <c r="O4" s="86"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="110"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="101"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="118"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="115"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="110"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="81"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="101"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="118"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="115"/>
+      <c r="O6" s="86"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="110"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="81"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="101"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="118"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="115"/>
+      <c r="O7" s="86"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="110"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="81"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="101"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="119"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="116"/>
+      <c r="O8" s="87"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="113"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="84"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -2111,21 +2111,21 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="80"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="101"/>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -2142,19 +2142,19 @@
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
       <c r="O12" s="37"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -2171,19 +2171,19 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="104"/>
       <c r="O13" s="37"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -2200,19 +2200,19 @@
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="104"/>
       <c r="O14" s="37"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -2229,19 +2229,19 @@
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="83"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="104"/>
       <c r="O15" s="37"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -2258,19 +2258,19 @@
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="107"/>
       <c r="O16" s="37"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -2284,33 +2284,33 @@
       <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="40"/>
@@ -2395,7 +2395,7 @@
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="91" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1"/>
@@ -2408,7 +2408,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="73" t="s">
+      <c r="Q19" s="94" t="s">
         <v>32</v>
       </c>
       <c r="R19" s="25"/>
@@ -2428,7 +2428,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="71"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="1"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
@@ -2439,7 +2439,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="76"/>
+      <c r="Q20" s="97"/>
       <c r="R20" s="25"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2457,7 +2457,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="71"/>
+      <c r="F21" s="92"/>
       <c r="G21" s="1"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
@@ -2468,7 +2468,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="76"/>
+      <c r="Q21" s="97"/>
       <c r="R21" s="25"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2486,7 +2486,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="71"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="1"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
@@ -2497,7 +2497,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="76"/>
+      <c r="Q22" s="97"/>
       <c r="R22" s="25"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2515,7 +2515,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="71"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="1"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
@@ -2526,7 +2526,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="76"/>
+      <c r="Q23" s="97"/>
       <c r="R23" s="25"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -2544,7 +2544,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="72"/>
+      <c r="F24" s="93"/>
       <c r="G24" s="1"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
@@ -2555,7 +2555,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="77"/>
+      <c r="Q24" s="98"/>
       <c r="R24" s="25"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
@@ -2566,33 +2566,33 @@
       <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
@@ -2674,14 +2674,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="117" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="94" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -2693,14 +2693,14 @@
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="94" t="s">
+      <c r="R27" s="114" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="73" t="s">
+      <c r="W27" s="94" t="s">
         <v>30</v>
       </c>
       <c r="X27" s="27"/>
@@ -2711,12 +2711,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="98"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="74"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2726,12 +2726,12 @@
       <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="95"/>
+      <c r="R28" s="115"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="74"/>
+      <c r="W28" s="95"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
     </row>
@@ -2740,12 +2740,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="98"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="74"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2755,12 +2755,12 @@
       <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="95"/>
+      <c r="R29" s="115"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="74"/>
+      <c r="W29" s="95"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
     </row>
@@ -2769,12 +2769,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="98"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="74"/>
+      <c r="H30" s="95"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2784,12 +2784,12 @@
       <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="95"/>
+      <c r="R30" s="115"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="74"/>
+      <c r="W30" s="95"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
     </row>
@@ -2798,12 +2798,12 @@
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="98"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="74"/>
+      <c r="H31" s="95"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2813,12 +2813,12 @@
       <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="95"/>
+      <c r="R31" s="115"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="74"/>
+      <c r="W31" s="95"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
     </row>
@@ -2827,12 +2827,12 @@
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="99"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="75"/>
+      <c r="H32" s="96"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2842,26 +2842,26 @@
       <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="96"/>
+      <c r="R32" s="116"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="75"/>
+      <c r="W32" s="96"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="113"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
@@ -2897,7 +2897,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="87" t="s">
+      <c r="H35" s="108" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="88"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
@@ -2923,7 +2923,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="109"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
@@ -2935,7 +2935,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="88"/>
+      <c r="H38" s="109"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
@@ -2947,7 +2947,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="88"/>
+      <c r="H39" s="109"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -2959,18 +2959,10 @@
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="89"/>
+      <c r="H40" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2981,6 +2973,14 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2995,8 +2995,8 @@
   </sheetPr>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:Y18"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3018,33 +3018,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3183,33 +3183,33 @@
       <c r="Y4" s="50"/>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -3337,33 +3337,33 @@
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
@@ -3445,33 +3445,33 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
@@ -3547,34 +3547,39 @@
         <v>43902</v>
       </c>
     </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="O16" s="68" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
@@ -3642,33 +3647,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3763,33 +3768,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3885,33 +3890,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -3993,33 +3998,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4096,33 +4101,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4168,8 +4173,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:Y9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4190,33 +4195,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4314,33 +4319,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4452,33 +4457,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4560,33 +4565,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4663,33 +4668,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4755,33 +4760,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="92"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="113"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4893,33 +4898,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5039,33 +5044,33 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5148,33 +5153,33 @@
       <c r="E15" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5251,33 +5256,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5342,33 +5347,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -5454,33 +5459,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5568,33 +5573,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5671,33 +5676,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5774,33 +5779,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5846,7 +5851,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -5869,33 +5874,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
@@ -6058,33 +6063,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
@@ -6223,33 +6228,33 @@
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16"/>
@@ -6410,33 +6415,33 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -6568,33 +6573,33 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25"/>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\3DS\3DGame_Progress\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\git\3DGame_Progress\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="チームの制作表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>チーム制作</t>
     <rPh sb="3" eb="5">
@@ -567,6 +567,20 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーション完成</t>
+    <rPh sb="5" eb="7">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラムに参加</t>
+    <rPh sb="6" eb="8">
+      <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1044,7 +1058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,9 +1269,96 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,94 +1419,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1690,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1716,33 +1733,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
@@ -1824,14 +1841,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="100" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="117" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1840,197 +1857,197 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="85" t="s">
+      <c r="O3" s="114" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="73" t="s">
+      <c r="R3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="76" t="s">
+      <c r="S3" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="78"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="107"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="72"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="89"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="86"/>
+      <c r="O4" s="115"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="81"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="110"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="72"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="89"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="86"/>
+      <c r="O5" s="115"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="81"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="110"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="72"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="89"/>
+      <c r="H6" s="118"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="86"/>
+      <c r="O6" s="115"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="81"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="110"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="72"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="89"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="86"/>
+      <c r="O7" s="115"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="81"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="110"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="72"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="90"/>
+      <c r="H8" s="119"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="87"/>
+      <c r="O8" s="116"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="84"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="113"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -2111,21 +2128,21 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="101"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -2142,19 +2159,19 @@
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="104"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="83"/>
       <c r="O12" s="37"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -2171,19 +2188,19 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="104"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="83"/>
       <c r="O13" s="37"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -2200,19 +2217,19 @@
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="104"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="83"/>
       <c r="O14" s="37"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -2229,19 +2246,19 @@
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="104"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="83"/>
       <c r="O15" s="37"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -2258,19 +2275,19 @@
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="107"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
       <c r="O16" s="37"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -2284,33 +2301,33 @@
       <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="40"/>
@@ -2395,7 +2412,7 @@
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="70" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1"/>
@@ -2408,7 +2425,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="94" t="s">
+      <c r="Q19" s="73" t="s">
         <v>32</v>
       </c>
       <c r="R19" s="25"/>
@@ -2428,7 +2445,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="92"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="1"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
@@ -2439,7 +2456,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="97"/>
+      <c r="Q20" s="76"/>
       <c r="R20" s="25"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2457,7 +2474,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="92"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="1"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
@@ -2468,7 +2485,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="97"/>
+      <c r="Q21" s="76"/>
       <c r="R21" s="25"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2486,7 +2503,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="92"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="1"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
@@ -2497,7 +2514,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="97"/>
+      <c r="Q22" s="76"/>
       <c r="R22" s="25"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2515,7 +2532,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="92"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="1"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
@@ -2526,7 +2543,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="97"/>
+      <c r="Q23" s="76"/>
       <c r="R23" s="25"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -2544,7 +2561,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="93"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="1"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
@@ -2555,7 +2572,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="98"/>
+      <c r="Q24" s="77"/>
       <c r="R24" s="25"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
@@ -2566,33 +2583,33 @@
       <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
@@ -2674,14 +2691,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="97" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="73" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -2693,14 +2710,14 @@
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="114" t="s">
+      <c r="R27" s="94" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="94" t="s">
+      <c r="W27" s="73" t="s">
         <v>30</v>
       </c>
       <c r="X27" s="27"/>
@@ -2711,12 +2728,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="118"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="95"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2726,12 +2743,12 @@
       <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="115"/>
+      <c r="R28" s="95"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="95"/>
+      <c r="W28" s="74"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
     </row>
@@ -2740,12 +2757,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="118"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="95"/>
+      <c r="H29" s="74"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2755,12 +2772,12 @@
       <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="115"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="95"/>
+      <c r="W29" s="74"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
     </row>
@@ -2769,12 +2786,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="118"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="95"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2784,12 +2801,12 @@
       <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="115"/>
+      <c r="R30" s="95"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="95"/>
+      <c r="W30" s="74"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
     </row>
@@ -2798,12 +2815,12 @@
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="118"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="95"/>
+      <c r="H31" s="74"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2813,12 +2830,12 @@
       <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="115"/>
+      <c r="R31" s="95"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="95"/>
+      <c r="W31" s="74"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
     </row>
@@ -2827,12 +2844,12 @@
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="119"/>
+      <c r="C32" s="99"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="96"/>
+      <c r="H32" s="75"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2842,26 +2859,26 @@
       <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="116"/>
+      <c r="R32" s="96"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="96"/>
+      <c r="W32" s="75"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
@@ -2897,7 +2914,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="108" t="s">
+      <c r="H35" s="87" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2911,7 +2928,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="109"/>
+      <c r="H36" s="88"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
@@ -2923,7 +2940,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="109"/>
+      <c r="H37" s="88"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
@@ -2935,7 +2952,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="109"/>
+      <c r="H38" s="88"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
@@ -2947,7 +2964,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="109"/>
+      <c r="H39" s="88"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -2959,10 +2976,18 @@
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="110"/>
+      <c r="H40" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2973,14 +2998,6 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2995,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3018,33 +3035,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3183,33 +3200,33 @@
       <c r="Y4" s="50"/>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -3337,33 +3354,33 @@
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
@@ -3445,33 +3462,33 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
@@ -3553,33 +3570,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
@@ -3625,8 +3642,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3647,33 +3664,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3768,33 +3785,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3890,33 +3907,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -3998,33 +4015,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4100,34 +4117,44 @@
         <v>43902</v>
       </c>
     </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q20" s="69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q21" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4163,6 +4190,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4174,7 +4202,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4195,33 +4223,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4319,33 +4347,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4449,41 +4477,39 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I12" s="68" t="s">
-        <v>56</v>
-      </c>
+      <c r="I12" s="121"/>
       <c r="U12" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4565,33 +4591,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4668,33 +4694,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4740,7 +4766,7 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:Y9"/>
     </sheetView>
   </sheetViews>
@@ -4760,33 +4786,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="113"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="92"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4898,33 +4924,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5044,33 +5070,33 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5153,33 +5179,33 @@
       <c r="E15" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5256,33 +5282,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5329,7 +5355,7 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5347,33 +5373,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -5459,33 +5485,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5573,33 +5599,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5676,33 +5702,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5779,33 +5805,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5851,7 +5877,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J7" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -5874,33 +5900,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
@@ -6063,33 +6089,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
@@ -6228,33 +6254,33 @@
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16"/>
@@ -6415,33 +6441,33 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -6573,33 +6599,33 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25"/>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -578,9 +578,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プログラムに参加</t>
+    <t>SEとBGM完成</t>
     <rPh sb="6" eb="8">
-      <t>サンカ</t>
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1269,6 +1269,72 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,9 +1404,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,70 +1422,7 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,33 +1733,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
@@ -1841,14 +1841,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="72" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="89" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1857,197 +1857,197 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="86" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="102" t="s">
+      <c r="R3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="105" t="s">
+      <c r="S3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="107"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="79"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="101"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="118"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="115"/>
+      <c r="O4" s="87"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="110"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="82"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="101"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="118"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="115"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="110"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="82"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="101"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="118"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="115"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="110"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="82"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="101"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="118"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="115"/>
+      <c r="O7" s="87"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="110"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="82"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="101"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="119"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="116"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="113"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="85"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -2128,21 +2128,21 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="80"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="102"/>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -2159,19 +2159,19 @@
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="83"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="105"/>
       <c r="O12" s="37"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -2188,19 +2188,19 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="83"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="105"/>
       <c r="O13" s="37"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -2217,19 +2217,19 @@
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="105"/>
       <c r="O14" s="37"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -2246,19 +2246,19 @@
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="83"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="105"/>
       <c r="O15" s="37"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -2275,19 +2275,19 @@
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="108"/>
       <c r="O16" s="37"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -2301,33 +2301,33 @@
       <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="40"/>
@@ -2412,7 +2412,7 @@
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="92" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1"/>
@@ -2425,7 +2425,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="73" t="s">
+      <c r="Q19" s="95" t="s">
         <v>32</v>
       </c>
       <c r="R19" s="25"/>
@@ -2445,7 +2445,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="71"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="1"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
@@ -2456,7 +2456,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="76"/>
+      <c r="Q20" s="98"/>
       <c r="R20" s="25"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2474,7 +2474,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="71"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="1"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
@@ -2485,7 +2485,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="76"/>
+      <c r="Q21" s="98"/>
       <c r="R21" s="25"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2503,7 +2503,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="71"/>
+      <c r="F22" s="93"/>
       <c r="G22" s="1"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="76"/>
+      <c r="Q22" s="98"/>
       <c r="R22" s="25"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2532,7 +2532,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="71"/>
+      <c r="F23" s="93"/>
       <c r="G23" s="1"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
@@ -2543,7 +2543,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="76"/>
+      <c r="Q23" s="98"/>
       <c r="R23" s="25"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -2561,7 +2561,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="72"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="1"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
@@ -2572,7 +2572,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="77"/>
+      <c r="Q24" s="99"/>
       <c r="R24" s="25"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
@@ -2583,33 +2583,33 @@
       <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
@@ -2691,14 +2691,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="118" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="95" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -2710,14 +2710,14 @@
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="94" t="s">
+      <c r="R27" s="115" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="73" t="s">
+      <c r="W27" s="95" t="s">
         <v>30</v>
       </c>
       <c r="X27" s="27"/>
@@ -2728,12 +2728,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="98"/>
+      <c r="C28" s="119"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="74"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2743,12 +2743,12 @@
       <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="95"/>
+      <c r="R28" s="116"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="74"/>
+      <c r="W28" s="96"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
     </row>
@@ -2757,12 +2757,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="98"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="74"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2772,12 +2772,12 @@
       <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="95"/>
+      <c r="R29" s="116"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="74"/>
+      <c r="W29" s="96"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
     </row>
@@ -2786,12 +2786,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="98"/>
+      <c r="C30" s="119"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="74"/>
+      <c r="H30" s="96"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2801,12 +2801,12 @@
       <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="95"/>
+      <c r="R30" s="116"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="74"/>
+      <c r="W30" s="96"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
     </row>
@@ -2815,12 +2815,12 @@
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="98"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="74"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2830,12 +2830,12 @@
       <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="95"/>
+      <c r="R31" s="116"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="74"/>
+      <c r="W31" s="96"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
     </row>
@@ -2844,12 +2844,12 @@
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="99"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="75"/>
+      <c r="H32" s="97"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2859,26 +2859,26 @@
       <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="96"/>
+      <c r="R32" s="117"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="75"/>
+      <c r="W32" s="97"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="114"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
@@ -2914,7 +2914,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="87" t="s">
+      <c r="H35" s="109" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="88"/>
+      <c r="H36" s="110"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
@@ -2940,7 +2940,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="88"/>
+      <c r="H37" s="110"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
@@ -2952,7 +2952,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="88"/>
+      <c r="H38" s="110"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
@@ -2964,7 +2964,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="88"/>
+      <c r="H39" s="110"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -2976,18 +2976,10 @@
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="89"/>
+      <c r="H40" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2998,6 +2990,14 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3035,33 +3035,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3200,33 +3200,33 @@
       <c r="Y4" s="50"/>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -3304,11 +3304,11 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="61"/>
       <c r="F7" s="61"/>
       <c r="G7" s="61"/>
@@ -3354,33 +3354,33 @@
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
@@ -3462,33 +3462,33 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
@@ -3570,33 +3570,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
@@ -3642,7 +3642,7 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:Y22"/>
     </sheetView>
   </sheetViews>
@@ -3664,33 +3664,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3785,33 +3785,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3889,11 +3889,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="I11" s="52" t="s">
         <v>46</v>
       </c>
@@ -3907,33 +3907,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4015,33 +4015,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4128,33 +4128,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4223,33 +4223,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4347,33 +4347,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4451,11 +4451,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
@@ -4477,39 +4477,39 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I12" s="121"/>
+      <c r="I12" s="70"/>
       <c r="U12" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4591,33 +4591,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4694,33 +4694,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4786,33 +4786,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="92"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="114"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4924,33 +4924,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5028,11 +5028,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="N11" s="67" t="s">
         <v>41</v>
       </c>
@@ -5070,33 +5070,33 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5179,33 +5179,33 @@
       <c r="E15" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5282,33 +5282,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5373,33 +5373,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -5485,33 +5485,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5589,43 +5589,43 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="69" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5702,33 +5702,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5805,33 +5805,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5900,33 +5900,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
@@ -6089,33 +6089,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
@@ -6193,11 +6193,11 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -6254,33 +6254,33 @@
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16"/>
@@ -6441,33 +6441,33 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -6599,33 +6599,33 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25"/>

--- a/Excel/チーム制作_ガントチャート.xlsx
+++ b/Excel/チーム制作_ガントチャート.xlsx
@@ -1272,9 +1272,96 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,93 +1420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="E22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1733,33 +1733,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
@@ -1841,14 +1841,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="101" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="118" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="1"/>
@@ -1857,197 +1857,197 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="115" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="74" t="s">
+      <c r="R3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="79"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="108"/>
     </row>
     <row r="4" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="73"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="90"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="87"/>
+      <c r="O4" s="116"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="82"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="111"/>
     </row>
     <row r="5" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="73"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="90"/>
+      <c r="H5" s="119"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="87"/>
+      <c r="O5" s="116"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="82"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="111"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="73"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="90"/>
+      <c r="H6" s="119"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="87"/>
+      <c r="O6" s="116"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="82"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="111"/>
     </row>
     <row r="7" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="73"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="90"/>
+      <c r="H7" s="119"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="87"/>
+      <c r="O7" s="116"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="82"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="111"/>
     </row>
     <row r="8" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="73"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="91"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="88"/>
+      <c r="O8" s="117"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="85"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="114"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -2128,21 +2128,21 @@
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="102"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="34"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
@@ -2159,19 +2159,19 @@
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="105"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="84"/>
       <c r="O12" s="37"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
@@ -2188,19 +2188,19 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="105"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="37"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -2217,19 +2217,19 @@
       <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="105"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="37"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -2246,19 +2246,19 @@
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="105"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="84"/>
       <c r="O15" s="37"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -2275,19 +2275,19 @@
       <c r="A16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="108"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="87"/>
       <c r="O16" s="37"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -2301,33 +2301,33 @@
       <c r="Y16" s="36"/>
     </row>
     <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="40"/>
@@ -2412,7 +2412,7 @@
       <c r="C19" s="25"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="92" t="s">
+      <c r="F19" s="71" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1"/>
@@ -2425,7 +2425,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="25"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="95" t="s">
+      <c r="Q19" s="74" t="s">
         <v>32</v>
       </c>
       <c r="R19" s="25"/>
@@ -2445,7 +2445,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="93"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="1"/>
       <c r="H20" s="26"/>
       <c r="I20" s="1"/>
@@ -2456,7 +2456,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="26"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="98"/>
+      <c r="Q20" s="77"/>
       <c r="R20" s="25"/>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
@@ -2474,7 +2474,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="93"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="1"/>
       <c r="H21" s="26"/>
       <c r="I21" s="1"/>
@@ -2485,7 +2485,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="26"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="98"/>
+      <c r="Q21" s="77"/>
       <c r="R21" s="25"/>
       <c r="S21" s="27"/>
       <c r="T21" s="27"/>
@@ -2503,7 +2503,7 @@
       <c r="C22" s="26"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="93"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="1"/>
       <c r="H22" s="26"/>
       <c r="I22" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="26"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="98"/>
+      <c r="Q22" s="77"/>
       <c r="R22" s="25"/>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
@@ -2532,7 +2532,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="93"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="1"/>
       <c r="H23" s="26"/>
       <c r="I23" s="1"/>
@@ -2543,7 +2543,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="26"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="98"/>
+      <c r="Q23" s="77"/>
       <c r="R23" s="25"/>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
@@ -2561,7 +2561,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="94"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="1"/>
       <c r="H24" s="26"/>
       <c r="I24" s="1"/>
@@ -2572,7 +2572,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="26"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="99"/>
+      <c r="Q24" s="78"/>
       <c r="R24" s="25"/>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
@@ -2583,33 +2583,33 @@
       <c r="Y24" s="27"/>
     </row>
     <row r="25" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
@@ -2691,14 +2691,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="98" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="95" t="s">
+      <c r="H27" s="74" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1"/>
@@ -2710,14 +2710,14 @@
       <c r="O27" s="25"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="115" t="s">
+      <c r="R27" s="95" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
-      <c r="W27" s="95" t="s">
+      <c r="W27" s="74" t="s">
         <v>30</v>
       </c>
       <c r="X27" s="27"/>
@@ -2728,12 +2728,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="119"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="96"/>
+      <c r="H28" s="75"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2743,12 +2743,12 @@
       <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="116"/>
+      <c r="R28" s="96"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-      <c r="W28" s="96"/>
+      <c r="W28" s="75"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
     </row>
@@ -2757,12 +2757,12 @@
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="119"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2772,12 +2772,12 @@
       <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="116"/>
+      <c r="R29" s="96"/>
       <c r="S29" s="27"/>
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="96"/>
+      <c r="W29" s="75"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
     </row>
@@ -2786,12 +2786,12 @@
         <v>4</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="119"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="96"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2801,12 +2801,12 @@
       <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="116"/>
+      <c r="R30" s="96"/>
       <c r="S30" s="27"/>
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-      <c r="W30" s="96"/>
+      <c r="W30" s="75"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
     </row>
@@ -2815,12 +2815,12 @@
         <v>5</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="119"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="96"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2830,12 +2830,12 @@
       <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="116"/>
+      <c r="R31" s="96"/>
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-      <c r="W31" s="96"/>
+      <c r="W31" s="75"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
     </row>
@@ -2844,12 +2844,12 @@
         <v>6</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="120"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="1"/>
       <c r="E32" s="7"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="97"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2859,26 +2859,26 @@
       <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="117"/>
+      <c r="R32" s="97"/>
       <c r="S32" s="27"/>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
-      <c r="W32" s="97"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="114"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="93"/>
     </row>
     <row r="34" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
@@ -2914,7 +2914,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="109" t="s">
+      <c r="H35" s="88" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="110"/>
+      <c r="H36" s="89"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
@@ -2940,7 +2940,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="110"/>
+      <c r="H37" s="89"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
@@ -2952,7 +2952,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="110"/>
+      <c r="H38" s="89"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
@@ -2964,7 +2964,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="110"/>
+      <c r="H39" s="89"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="13" t="s">
@@ -2976,10 +2976,18 @@
       <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="111"/>
+      <c r="H40" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="A17:Y17"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="R3:R8"/>
+    <mergeCell ref="S3:Y8"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="H3:H8"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="Q19:Q24"/>
@@ -2990,14 +2998,6 @@
     <mergeCell ref="R27:R32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="H27:H32"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="A17:Y17"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="R3:R8"/>
-    <mergeCell ref="S3:Y8"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3012,7 +3012,7 @@
   </sheetPr>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -3035,33 +3035,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3200,33 +3200,33 @@
       <c r="Y4" s="50"/>
     </row>
     <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
     </row>
     <row r="6" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -3354,33 +3354,33 @@
       <c r="Y8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
@@ -3462,33 +3462,33 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
@@ -3570,33 +3570,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="23">
@@ -3642,8 +3642,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:Y22"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3664,33 +3664,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -3785,33 +3785,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -3907,33 +3907,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4015,33 +4015,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4128,33 +4128,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4223,33 +4223,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4347,33 +4347,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -4483,33 +4483,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -4591,33 +4591,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -4694,33 +4694,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -4786,33 +4786,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="114"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -4924,33 +4924,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5070,33 +5070,33 @@
       <c r="Y12" s="28"/>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5179,33 +5179,33 @@
       <c r="E15" s="28"/>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5282,33 +5282,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5373,33 +5373,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -5485,33 +5485,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
@@ -5599,33 +5599,33 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
@@ -5702,33 +5702,33 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
@@ -5805,33 +5805,33 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
@@ -5877,7 +5877,7 @@
   </sheetPr>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -5900,33 +5900,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
     </row>
     <row r="2" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A2" s="19"/>
@@ -6089,33 +6089,33 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
     </row>
     <row r="10" spans="1:25" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="19"/>
@@ -6254,33 +6254,33 @@
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16"/>
@@ -6441,33 +6441,33 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21"/>
@@ -6599,33 +6599,33 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25"/>
